--- a/結合テスト/結合テスト_シナリオ一覧.xlsx
+++ b/結合テスト/結合テスト_シナリオ一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riku.yamashita\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18FFDC0C-F264-4EE5-AF72-FDB4A81D1269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EC166B2-9C62-463D-8D3E-BFCC8A8AA938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D4AD0730-A377-4EF7-A1DB-6931266C35A9}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="192">
   <si>
     <t>結合テスト シナリオ一覧</t>
     <phoneticPr fontId="1"/>
@@ -498,16 +498,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>土岐さん・爲則さん</t>
-    <rPh sb="0" eb="2">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タメノリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4-1</t>
   </si>
   <si>
@@ -621,16 +611,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>山下西山</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマシタ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニシヤマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>5-1</t>
   </si>
   <si>
@@ -704,38 +684,6 @@
   </si>
   <si>
     <t>該当なしで空配列（[]）が返却される（200 OK）。</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>DB接続エラー</t>
-  </si>
-  <si>
-    <t>DB不通時に GET /api/products?category=キッチン用品を実行 -&gt; ProductService -&gt; categoryRepository など失敗</t>
-    <rPh sb="38" eb="40">
-      <t>ヨウヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>500 Internal Server Error。例外が補足され、エラーレスポンスを返す。</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>APIタイムアウト</t>
-  </si>
-  <si>
-    <t>GET /api/products?category=キッチン用品 実行中にフロント側で通信タイムアウト</t>
-    <rPh sb="31" eb="33">
-      <t>ヨウヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フロント側でローディングが停止し、「通信に失敗しました」などのメッセージが表示される。</t>
   </si>
 </sst>
 </file>
@@ -867,7 +815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,32 +864,11 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1325,7 +1252,7 @@
   <dimension ref="B1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="52" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1341,10 +1268,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
@@ -2074,194 +2001,191 @@
       <c r="B47" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="48" spans="2:7" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="32" cm="1">
+      <c r="B48" s="25" cm="1">
         <f t="array" aca="1" ref="B48" ca="1">B48:E52</f>
         <v>0</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F48" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="33" t="s">
+      <c r="G48" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="E49" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="F49" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="G49" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="18"/>
+      <c r="C50" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G49" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="25"/>
-      <c r="C50" s="26" t="s">
+      <c r="D50" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="E50" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="F50" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F50" s="29" t="s">
+      <c r="G50" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="18"/>
+      <c r="C51" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="G50" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="25"/>
-      <c r="C51" s="26" t="s">
+      <c r="D51" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="E51" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="F51" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="G51" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="G51" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="26" t="s">
+      <c r="D52" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="E52" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="F52" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="F52" s="31" t="s">
+      <c r="G52" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="28"/>
+      <c r="C53" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="G52" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="35"/>
-      <c r="C53" s="36" t="s">
+      <c r="D53" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="D53" s="37" t="s">
+      <c r="E53" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="E53" s="37" t="s">
+      <c r="F53" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="F53" s="37" t="s">
+      <c r="G53" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="18"/>
+      <c r="C54" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="G53" s="38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="25"/>
-      <c r="C54" s="26" t="s">
+      <c r="D54" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="E54" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="F54" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="F54" s="31" t="s">
+      <c r="G54" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="18"/>
+      <c r="C55" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G54" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="25"/>
-      <c r="C55" s="26" t="s">
+      <c r="D55" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="E55" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="28"/>
+      <c r="C56" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E55" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="F55" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="G55" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="35"/>
-      <c r="C56" s="26" t="s">
+      <c r="D56" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="D56" s="37" t="s">
+      <c r="E56" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="F56" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="F56" s="37" t="s">
+      <c r="G56" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="18"/>
+      <c r="C57" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G56" s="38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="25"/>
-      <c r="C57" s="26" t="s">
+      <c r="D57" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="E57" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="F57" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="F57" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="G57" s="30" t="s">
+      <c r="G57" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2275,10 +2199,7 @@
     </row>
     <row r="59" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -2305,19 +2226,19 @@
       <c r="B61" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="F61" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E61" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="G61" s="17" t="s">
+      <c r="G61" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H61" s="14"/>
@@ -2325,19 +2246,19 @@
     </row>
     <row r="62" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="10"/>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="F62" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E62" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="F62" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G62" s="17" t="s">
+      <c r="G62" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H62" s="14"/>
@@ -2347,19 +2268,19 @@
       <c r="B63" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E63" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="F63" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E63" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="G63" s="17" t="s">
+      <c r="G63" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H63" s="14"/>
@@ -2367,81 +2288,55 @@
     </row>
     <row r="64" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="10"/>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="F64" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="E64" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="G64" s="17" t="s">
+      <c r="G64" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
     </row>
     <row r="65" spans="2:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="19"/>
-      <c r="C65" s="17" t="s">
+      <c r="B65" s="10"/>
+      <c r="C65" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="F65" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E65" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="G65" s="20" t="s">
+      <c r="G65" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
     </row>
     <row r="66" spans="2:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="22"/>
-      <c r="C66" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="G66" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="C66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
     </row>
     <row r="67" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="24"/>
-      <c r="C67" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="G67" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="C67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
     </row>
@@ -2535,15 +2430,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="6d91bb22-1267-46fa-8e61-645dc3a0f267" xsi:nil="true"/>
@@ -2551,7 +2437,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100FB0BDFD3C69BE04CA0B6EBFBB59E4559" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="752b2ff175b05b03e0c035222de06982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d91bb22-1267-46fa-8e61-645dc3a0f267" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1718121399b3c72a7290a669e49a9f43" ns3:_="">
     <xsd:import namespace="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
@@ -2701,31 +2587,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6295292E-D052-4BFC-BE20-2500EF12873D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A14683B-9E93-47F1-AD27-34E100DDE443}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC664843-8D61-4F3D-9DF0-BF6FF15C3F85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2741,4 +2628,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6295292E-D052-4BFC-BE20-2500EF12873D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/結合テスト/結合テスト_シナリオ一覧.xlsx
+++ b/結合テスト/結合テスト_シナリオ一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riku.yamashita\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EC166B2-9C62-463D-8D3E-BFCC8A8AA938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1753855C-BDAC-4539-874E-157447EC63A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D4AD0730-A377-4EF7-A1DB-6931266C35A9}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="200">
   <si>
     <t>結合テスト シナリオ一覧</t>
     <phoneticPr fontId="1"/>
@@ -684,6 +684,30 @@
   </si>
   <si>
     <t>該当なしで空配列（[]）が返却される（200 OK）。</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>4-11</t>
+  </si>
+  <si>
+    <t>ログイン画面表示（ログイン済）</t>
+  </si>
+  <si>
+    <t>ダッシュボード画面表示（未ログイン）</t>
+  </si>
+  <si>
+    <t>GET /admin/login → AdminController.showLogin() → HttpSession.getAttribute("admin")</t>
+  </si>
+  <si>
+    <t>GET /admin/dashboard → AdminController.showDashboard() → HttpSession.getAttribute("admin")</t>
+  </si>
+  <si>
+    <t>ログイン画面（/admin/login）にリダイレクトされる。</t>
+  </si>
+  <si>
+    <t>ダッシュボードページ（/admin/dashboard）にリダイレクトされる</t>
   </si>
 </sst>
 </file>
@@ -930,6 +954,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1249,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B58C232-3412-462C-AB01-3FF28E9C0C9E}">
-  <dimension ref="B1:I95"/>
+  <dimension ref="B1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="52" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2189,96 +2217,90 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-    </row>
-    <row r="59" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="1" t="s">
+    <row r="58" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="30"/>
+      <c r="C58" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="24"/>
+      <c r="C59" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+    </row>
+    <row r="61" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="5" t="s">
+    <row r="62" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E62" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F62" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G62" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="77.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="10" t="s">
+    <row r="63" spans="2:9" ht="77.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D63" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E63" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="F61" s="17" t="s">
+      <c r="F63" s="17" t="s">
         <v>175</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-    </row>
-    <row r="62" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="10"/>
-      <c r="C62" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-    </row>
-    <row r="63" spans="2:9" ht="74.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>183</v>
       </c>
       <c r="G63" s="16" t="s">
         <v>13</v>
@@ -2289,16 +2311,16 @@
     <row r="64" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="10"/>
       <c r="C64" s="16" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>13</v>
@@ -2306,19 +2328,21 @@
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
     </row>
-    <row r="65" spans="2:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="10"/>
+    <row r="65" spans="2:9" ht="74.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C65" s="16" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>13</v>
@@ -2326,35 +2350,59 @@
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" spans="2:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+    <row r="66" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="10"/>
+      <c r="C66" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+    <row r="67" spans="2:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="10"/>
+      <c r="C67" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-    </row>
-    <row r="69" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
+    <row r="68" spans="2:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+    </row>
+    <row r="69" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
     </row>
     <row r="70" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="14"/>
@@ -2396,11 +2444,21 @@
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
     </row>
-    <row r="88" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E89" s="3"/>
+    <row r="75" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
     </row>
     <row r="90" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E90" s="3"/>
@@ -2419,6 +2477,12 @@
     </row>
     <row r="95" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E97" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2430,14 +2494,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6d91bb22-1267-46fa-8e61-645dc3a0f267" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100FB0BDFD3C69BE04CA0B6EBFBB59E4559" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="752b2ff175b05b03e0c035222de06982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d91bb22-1267-46fa-8e61-645dc3a0f267" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1718121399b3c72a7290a669e49a9f43" ns3:_="">
     <xsd:import namespace="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
@@ -2587,6 +2643,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d91bb22-1267-46fa-8e61-645dc3a0f267" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2597,22 +2661,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A14683B-9E93-47F1-AD27-34E100DDE443}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC664843-8D61-4F3D-9DF0-BF6FF15C3F85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2630,6 +2678,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A14683B-9E93-47F1-AD27-34E100DDE443}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6295292E-D052-4BFC-BE20-2500EF12873D}">
   <ds:schemaRefs>
